--- a/lab3/ex2/tabel-ex2.xlsx
+++ b/lab3/ex2/tabel-ex2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INFO\Faculta\PrecupSerbanMarian_InfoIII_LimbajeFormale\lab3\ex2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFC7001-0634-4CB2-A4F0-F4782B82CA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC830E9B-A4E1-4120-9E9B-C9ACDB37D014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{10834191-A960-44D2-A79A-E4243560AE22}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{10834191-A960-44D2-A79A-E4243560AE22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Q</t>
   </si>
@@ -65,27 +65,12 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">q₃ (3 locuri ocupate)	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q₄ (4 locuri ocupate)	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q₅ (5 locuri ocupate)	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q₂ (2 locuri ocupate)	</t>
-  </si>
-  <si>
     <t>Eroare(full)</t>
   </si>
   <si>
     <t>Eroare(gol)</t>
   </si>
   <si>
-    <t>q₀ (0 locuri ocupate)(start)</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -93,6 +78,27 @@
   </si>
   <si>
     <t>q6(iesire)(final)</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q1(3 locuri ocupate)	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q2(2 locuri ocupate)	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q3(3 locuri ocupate)	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q4(4 locuri ocupate)	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q5(5 locuri ocupate)	</t>
+  </si>
+  <si>
+    <t>q0(0 locuri ocupate)(start)</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99238E84-DCD5-4D34-AD82-CDA1257B5F90}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +491,7 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,26 +502,32 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -524,12 +536,15 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -538,12 +553,15 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -552,12 +570,15 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -566,26 +587,32 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/lab3/ex2/tabel-ex2.xlsx
+++ b/lab3/ex2/tabel-ex2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INFO\Faculta\PrecupSerbanMarian_InfoIII_LimbajeFormale\lab3\ex2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC830E9B-A4E1-4120-9E9B-C9ACDB37D014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAE94D2-523E-4FA9-8170-2BCB2231BFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{10834191-A960-44D2-A79A-E4243560AE22}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>q6(iesire)(final)</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t xml:space="preserve">q1(3 locuri ocupate)	</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>q0(0 locuri ocupate)(start)</t>
+  </si>
+  <si>
+    <t>epsilon</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,12 +505,12 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
